--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -445,6 +445,12 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F2" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -505,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>0120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0120</v>
+        <v>0121</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,12 +457,17 @@
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121</v>
+        <v>012130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -464,6 +464,9 @@
       <c r="A4" t="str">
         <v>2</v>
       </c>
+      <c r="C4" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -467,6 +467,9 @@
       <c r="C4" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -528,7 +531,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012130</v>
+        <v>0121313</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -468,7 +468,7 @@
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +531,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121313</v>
+        <v>012131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -445,6 +445,12 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F2" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -505,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>0120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name002_2024-9-27.xlsx
+++ b/DateBase/orders/name002_2024-9-27.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0120</v>
+        <v>01213</v>
       </c>
     </row>
   </sheetData>
